--- a/xlsx/nor_oda_nicfi_tenyear.xlsx
+++ b/xlsx/nor_oda_nicfi_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for bistand til Klima- og skogsatsingen, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand til Klima- og skogsatsingen. 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_nicfi_tenyear.xlsx
+++ b/xlsx/nor_oda_nicfi_tenyear.xlsx
@@ -402,7 +402,7 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>2.9124068437</v>
+        <v>2.8251245457</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +410,7 @@
         <v>2016</v>
       </c>
       <c r="B3">
-        <v>2.6423528135</v>
+        <v>2.5474081825</v>
       </c>
     </row>
     <row r="4">
@@ -418,7 +418,7 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>2.97766889523</v>
+        <v>2.87876095723</v>
       </c>
     </row>
     <row r="5">
@@ -426,7 +426,7 @@
         <v>2018</v>
       </c>
       <c r="B5">
-        <v>2.96401822628</v>
+        <v>2.86565989928</v>
       </c>
     </row>
     <row r="6">
@@ -434,7 +434,7 @@
         <v>2019</v>
       </c>
       <c r="B6">
-        <v>3.21685990436</v>
+        <v>3.11860107536</v>
       </c>
     </row>
     <row r="7">
@@ -442,7 +442,7 @@
         <v>2020</v>
       </c>
       <c r="B7">
-        <v>3.1506823298</v>
+        <v>3.0486517508</v>
       </c>
     </row>
     <row r="8">
@@ -450,7 +450,7 @@
         <v>2021</v>
       </c>
       <c r="B8">
-        <v>3.01126902713</v>
+        <v>2.91701725813</v>
       </c>
     </row>
     <row r="9">
@@ -458,7 +458,7 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>2.8932707735</v>
+        <v>2.7900354195</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +466,7 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>2.9938012518</v>
+        <v>2.8870581008</v>
       </c>
     </row>
     <row r="11">
@@ -474,7 +474,7 @@
         <v>2024</v>
       </c>
       <c r="B11">
-        <v>4.152172014</v>
+        <v>4.083172259</v>
       </c>
     </row>
   </sheetData>
